--- a/biology/Médecine/Dr.Max/Dr.Max.xlsx
+++ b/biology/Médecine/Dr.Max/Dr.Max.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr.Max est une entreprise spécialisée dans la distribution pharmaceutique en Europe centrale et de l'Est. Elle appartient au fonds d'investissement Penta Investments.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2017, Dr.Max annonce l'acquisition d'A&amp;D Pharma, une chaîne de pharmacie présente en Roumanie, ce qui lui permet d'être la plus grande entreprise de distribution pharmaceutique de Roumanie avec plus de 600 pharmacies dans ce pays, en plus de 1 300 pharmacies quelle possède déjà en Pologne, Tchéquie, Slovaquie, Serbie et Italie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2017, Dr.Max annonce l'acquisition d'A&amp;D Pharma, une chaîne de pharmacie présente en Roumanie, ce qui lui permet d'être la plus grande entreprise de distribution pharmaceutique de Roumanie avec plus de 600 pharmacies dans ce pays, en plus de 1 300 pharmacies quelle possède déjà en Pologne, Tchéquie, Slovaquie, Serbie et Italie.
 </t>
         </is>
       </c>
